--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{079DE184-DD51-42C8-81A4-3304379DE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B6DCFC2-7B47-418B-8781-13C2F2FC2FFE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769EF36-5C8F-4921-8107-84F8F90E8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
+    <workbookView xWindow="28680" yWindow="-2115" windowWidth="20730" windowHeight="11160" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B280DDF3-1ED5-4A4B-B0D8-5D25BF88B470}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,14 +503,8 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -520,14 +514,8 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -537,14 +525,8 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -554,14 +536,8 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -571,14 +547,8 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -588,14 +558,8 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
       <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,14 +569,8 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
       <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,14 +580,8 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,14 +591,8 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -656,14 +602,8 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
       <c r="D11" t="s">
         <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,14 +613,8 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
       <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -690,14 +624,8 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -707,14 +635,8 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
       <c r="D14" t="s">
         <v>22</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,14 +646,8 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
       <c r="D15" t="s">
         <v>24</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,646 +657,418 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
       <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
       <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
       <c r="D32" t="s">
         <v>21</v>
       </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
       <c r="D35" t="s">
         <v>21</v>
       </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
       <c r="D36" t="s">
         <v>23</v>
       </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
       </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
       <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
       <c r="D46" t="s">
         <v>22</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
-      <c r="E48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
       <c r="D49" t="s">
         <v>20</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
       <c r="D50" t="s">
         <v>26</v>
       </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
       <c r="D51" t="s">
         <v>25</v>
       </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
       <c r="D53" t="s">
         <v>23</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769EF36-5C8F-4921-8107-84F8F90E8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{7769EF36-5C8F-4921-8107-84F8F90E8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{058E104D-30E9-4DBC-B900-107FDF58E737}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2115" windowWidth="20730" windowHeight="11160" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C56"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,8 +503,14 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>19</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -514,8 +520,14 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
         <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -525,8 +537,14 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" t="s">
         <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -536,8 +554,14 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
       <c r="D5" t="s">
         <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -547,8 +571,14 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -558,8 +588,14 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7" t="s">
         <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,8 +605,14 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8" t="s">
         <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,8 +622,14 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9" t="s">
         <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{7769EF36-5C8F-4921-8107-84F8F90E8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{058E104D-30E9-4DBC-B900-107FDF58E737}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{7769EF36-5C8F-4921-8107-84F8F90E8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D456F7EB-EA64-4CA3-B5AE-8BB26DF2B981}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,8 +639,14 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
       <c r="D10" t="s">
         <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -650,8 +656,14 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>20</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -661,8 +673,14 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -672,8 +690,14 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{7769EF36-5C8F-4921-8107-84F8F90E8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D456F7EB-EA64-4CA3-B5AE-8BB26DF2B981}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF11848-DEB4-44F6-835D-07B26420C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10044" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,8 +707,14 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14" t="s">
         <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,8 +724,14 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15" t="s">
         <v>24</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -729,22 +741,34 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -755,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -766,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -777,7 +801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -788,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -799,7 +823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -810,7 +834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -821,7 +845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -832,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -843,7 +867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -854,7 +878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -865,7 +889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -876,7 +900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -887,7 +911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -898,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF11848-DEB4-44F6-835D-07B26420C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{6BF11848-DEB4-44F6-835D-07B26420C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F4E91F-EE0F-41E6-A866-5AB84B2CDC29}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10044" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B280DDF3-1ED5-4A4B-B0D8-5D25BF88B470}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,8 +775,14 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18" t="s">
         <v>22</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -786,8 +792,14 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
       <c r="D19" t="s">
         <v>19</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,8 +809,14 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="D20" t="s">
         <v>21</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -808,8 +826,14 @@
       <c r="B21" t="s">
         <v>23</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21" t="s">
         <v>20</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{6BF11848-DEB4-44F6-835D-07B26420C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F4E91F-EE0F-41E6-A866-5AB84B2CDC29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342FA13E-DB3C-4AAE-BB45-38D13899E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10044" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,8 +843,14 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
       <c r="D22" t="s">
         <v>23</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -854,8 +860,14 @@
       <c r="B23" t="s">
         <v>19</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23" t="s">
         <v>26</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,8 +877,14 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24" t="s">
         <v>25</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -876,8 +894,14 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
       <c r="D25" t="s">
         <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342FA13E-DB3C-4AAE-BB45-38D13899E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{342FA13E-DB3C-4AAE-BB45-38D13899E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A388A46-4B7A-419F-A89A-337C4194459D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,8 +911,14 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26" t="s">
         <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -922,8 +928,14 @@
       <c r="B27" t="s">
         <v>19</v>
       </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
       <c r="D27" t="s">
         <v>23</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -933,8 +945,14 @@
       <c r="B28" t="s">
         <v>21</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28" t="s">
         <v>26</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -944,8 +962,14 @@
       <c r="B29" t="s">
         <v>20</v>
       </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
       <c r="D29" t="s">
         <v>25</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{342FA13E-DB3C-4AAE-BB45-38D13899E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A388A46-4B7A-419F-A89A-337C4194459D}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{342FA13E-DB3C-4AAE-BB45-38D13899E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F18FA7DA-6D09-4418-8941-20EAE7AFA98D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,8 +979,14 @@
       <c r="B30" t="s">
         <v>22</v>
       </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
       <c r="D30" t="s">
         <v>25</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -990,8 +996,14 @@
       <c r="B31" t="s">
         <v>24</v>
       </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
       <c r="D31" t="s">
         <v>19</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,22 +1013,34 @@
       <c r="B32" t="s">
         <v>23</v>
       </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
       <c r="D32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{342FA13E-DB3C-4AAE-BB45-38D13899E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F18FA7DA-6D09-4418-8941-20EAE7AFA98D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE610A3-070A-4E15-A9FB-80AD3D711438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B280DDF3-1ED5-4A4B-B0D8-5D25BF88B470}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,8 +1047,14 @@
       <c r="B34" t="s">
         <v>19</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
       <c r="D34" t="s">
         <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1058,8 +1064,14 @@
       <c r="B35" t="s">
         <v>20</v>
       </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
       <c r="D35" t="s">
         <v>21</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1069,8 +1081,14 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
       <c r="D36" t="s">
         <v>23</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1080,8 +1098,14 @@
       <c r="B37" t="s">
         <v>26</v>
       </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
       <c r="D37" t="s">
         <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE610A3-070A-4E15-A9FB-80AD3D711438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FFE610A3-070A-4E15-A9FB-80AD3D711438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53F97C78-FE61-4D44-B780-EA2F4B1BE539}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
+    <workbookView xWindow="28680" yWindow="3060" windowWidth="20730" windowHeight="11160" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B280DDF3-1ED5-4A4B-B0D8-5D25BF88B470}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,8 +1115,14 @@
       <c r="B38" t="s">
         <v>22</v>
       </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
       <c r="D38" t="s">
         <v>20</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1126,8 +1132,14 @@
       <c r="B39" t="s">
         <v>19</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
       <c r="D39" t="s">
         <v>21</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1137,8 +1149,14 @@
       <c r="B40" t="s">
         <v>25</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
       <c r="D40" t="s">
         <v>24</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1148,8 +1166,14 @@
       <c r="B41" t="s">
         <v>23</v>
       </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
       <c r="D41" t="s">
         <v>26</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FFE610A3-070A-4E15-A9FB-80AD3D711438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53F97C78-FE61-4D44-B780-EA2F4B1BE539}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CE4EF0-97A8-420B-AAC4-04157462AA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3060" windowWidth="20730" windowHeight="11160" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -469,17 +469,17 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -496,7 +496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -666,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1176,51 +1176,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
       </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +1266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1253,7 +1277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1286,7 +1310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1341,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CE4EF0-97A8-420B-AAC4-04157462AA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBBA2C-C7C2-4E11-8CEA-3152636473D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -468,18 +468,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B280DDF3-1ED5-4A4B-B0D8-5D25BF88B470}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -496,7 +496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -666,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1244,51 +1244,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
       <c r="D49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1354,7 +1378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1365,7 +1389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBBA2C-C7C2-4E11-8CEA-3152636473D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297FD8FB-41CF-455B-B117-062C6633D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,8 +1319,14 @@
       <c r="B50" t="s">
         <v>22</v>
       </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
       <c r="D50" t="s">
         <v>26</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1330,8 +1336,14 @@
       <c r="B51" t="s">
         <v>19</v>
       </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
       <c r="D51" t="s">
         <v>25</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1341,8 +1353,14 @@
       <c r="B52" t="s">
         <v>21</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52" t="s">
         <v>24</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1352,8 +1370,14 @@
       <c r="B53" t="s">
         <v>20</v>
       </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
       <c r="D53" t="s">
         <v>23</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - nd.edu\Documents\Personal_projects\WCQ_Concacaf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nd4-my.sharepoint.com/personal/sweaver4_nd_edu/Documents/Documents/Personal_projects/WCQ_Concacaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297FD8FB-41CF-455B-B117-062C6633D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{297FD8FB-41CF-455B-B117-062C6633D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B496F1E4-F057-4997-B4CD-D8F58A8D0D1B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{26DC9B6C-8293-44D9-840D-3D50F043DF2B}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,8 +1387,14 @@
       <c r="B54" t="s">
         <v>23</v>
       </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
       <c r="D54" t="s">
         <v>22</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1398,8 +1404,14 @@
       <c r="B55" t="s">
         <v>26</v>
       </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
       <c r="D55" t="s">
         <v>19</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1409,8 +1421,14 @@
       <c r="B56" t="s">
         <v>25</v>
       </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
       <c r="D56" t="s">
         <v>21</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1420,8 +1438,14 @@
       <c r="B57" t="s">
         <v>24</v>
       </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
       <c r="D57" t="s">
         <v>20</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
